--- a/org.projects/Book11.xlsx
+++ b/org.projects/Book11.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DinnuBunny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DinnuBunny\git\HYR_Tuto\org.projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4AC7FF-0DE7-4C07-A7F4-ACEFF89DE6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA48229C-5B64-48FF-BF86-DA0EA9605FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -943,12 +945,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" customWidth="1"/>
@@ -1096,4 +1099,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F3F9BA-429A-480F-BBB8-57401D86B517}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EAA5BC-FD87-40ED-819C-29AD6F3A12B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>